--- a/biology/Botanique/Silene_sennenii/Silene_sennenii.xlsx
+++ b/biology/Botanique/Silene_sennenii/Silene_sennenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene sennenii est une espèce de plantes à fleurs de la famille des Caryophyllacées.
 C'est une plante endémique en Espagne. Son habitat naturel est de type méditerranéen est sa végétation est arbustive. Silene sennenii est menacé par la destruction de son habitat.
